--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Qsync\JAVA\Java Projects\Task 24.7 Project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AF211-BE4A-432C-BB8D-EFBCFB051BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF7B88-9D46-46D1-83DF-90AA90156270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28620" windowHeight="17730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="2865" windowWidth="28620" windowHeight="17730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
